--- a/GATEWAY/A1#111#ESCINFORMATICASRLXX/ESC-INFORMATICA_SRL/MEDIXIS/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ESCINFORMATICASRLXX/ESC-INFORMATICA_SRL/MEDIXIS/1.0.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\escsrv12\Sviluppo$\MediXis\FSE2_2024\Files_Accreditamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\escsrv12\Sviluppo$\MediXis\FSE2_2024\Files_Accreditamento\A1#111#ESCINFORMATICASRLXX\ESC-INFORMATICA_SRL\MEDIXIS\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F664AD5F-D2B5-46A6-A9D3-F80B1F3A8DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FD1529-46A0-4262-BF71-7E542AC92047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="237">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -839,9 +839,6 @@
     <t>Errore di Sintassi: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}</t>
   </si>
   <si>
-    <t>l'informazione è obbligatoria, questo errore non dovrebbe capitare, ho forzato un errore applicativo</t>
-  </si>
-  <si>
     <t>log di errore:{"traceID":"aefcd073dc865bdb","spanID":"aefcd073dc865bdb","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.80.3.1.4.4.4a5fc09346e891115a983349a91906ae61de74968b3d56e0c45cab250377e746.65caaea2fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
   </si>
   <si>
@@ -966,9 +963,6 @@
   </si>
   <si>
     <t>la sezione non viene gestita</t>
-  </si>
-  <si>
-    <t>2702/2024</t>
   </si>
   <si>
     <t>[ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice "S" ]</t>
@@ -1008,7 +1002,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,6 +1069,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1484,9 +1483,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1574,6 +1570,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2063,11 +2062,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T655"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:D5"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2105,14 +2104,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="60"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="59"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2130,14 +2129,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="67" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="59"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2155,12 +2154,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="60"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="59"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -2179,12 +2178,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="60"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="59"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -2202,8 +2201,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2298,13 +2297,13 @@
       <c r="M9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="38" t="s">
         <v>39</v>
       </c>
       <c r="Q9" s="18" t="s">
@@ -2339,13 +2338,13 @@
       <c r="F10" s="23">
         <v>45345</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="34" t="s">
         <v>175</v>
       </c>
       <c r="J10" s="25" t="s">
@@ -2361,10 +2360,10 @@
       <c r="N10" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="39" t="s">
         <v>177</v>
       </c>
       <c r="Q10" s="33" t="s">
@@ -2395,13 +2394,13 @@
       <c r="F11" s="23">
         <v>45345</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="34" t="s">
         <v>175</v>
       </c>
       <c r="J11" s="33" t="s">
@@ -2414,13 +2413,13 @@
       <c r="M11" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="O11" s="41" t="s">
+      <c r="O11" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="41" t="s">
+      <c r="P11" s="40" t="s">
         <v>181</v>
       </c>
       <c r="Q11" s="33" t="s">
@@ -2464,11 +2463,11 @@
       <c r="M12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="41" t="s">
+      <c r="N12" s="39"/>
+      <c r="O12" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="P12" s="41" t="s">
+      <c r="P12" s="40" t="s">
         <v>183</v>
       </c>
       <c r="Q12" s="25"/>
@@ -2499,16 +2498,18 @@
       <c r="F13" s="23">
         <v>45345</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -2655,21 +2656,19 @@
       <c r="F17" s="23">
         <v>45345</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="34" t="s">
         <v>171</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="33" t="s">
-        <v>185</v>
-      </c>
+      <c r="K17" s="33"/>
       <c r="L17" s="33" t="s">
         <v>60</v>
       </c>
@@ -2682,14 +2681,14 @@
       <c r="O17" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="41" t="s">
-        <v>186</v>
+      <c r="P17" s="40" t="s">
+        <v>185</v>
       </c>
       <c r="Q17" s="33" t="s">
         <v>182</v>
       </c>
       <c r="R17" s="26"/>
-      <c r="S17" s="36"/>
+      <c r="S17" s="35"/>
       <c r="T17" s="28" t="s">
         <v>52</v>
       </c>
@@ -2704,7 +2703,7 @@
       <c r="C18" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="37" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="22" t="s">
@@ -2713,16 +2712,18 @@
       <c r="F18" s="23">
         <v>45349</v>
       </c>
-      <c r="G18" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="35" t="s">
+      <c r="G18" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="33" t="s">
+        <v>60</v>
+      </c>
       <c r="K18" s="33"/>
       <c r="L18" s="33" t="s">
         <v>60</v>
@@ -2730,19 +2731,19 @@
       <c r="M18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="44"/>
+      <c r="N18" s="43"/>
       <c r="O18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="41" t="s">
-        <v>194</v>
+      <c r="P18" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="Q18" s="33" t="s">
         <v>182</v>
       </c>
       <c r="R18" s="26"/>
-      <c r="S18" s="36" t="s">
-        <v>195</v>
+      <c r="S18" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="T18" s="28" t="s">
         <v>52</v>
@@ -2758,7 +2759,7 @@
       <c r="C19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="37" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="22" t="s">
@@ -2767,33 +2768,33 @@
       <c r="F19" s="23">
         <v>45349</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="I19" s="34" t="s">
         <v>198</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>199</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>60</v>
       </c>
       <c r="K19" s="33"/>
-      <c r="L19" s="45" t="s">
+      <c r="L19" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="M19" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="46" t="s">
-        <v>201</v>
+      <c r="N19" s="45" t="s">
+        <v>200</v>
       </c>
       <c r="O19" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="40" t="s">
-        <v>202</v>
+      <c r="P19" s="39" t="s">
+        <v>201</v>
       </c>
       <c r="Q19" s="33" t="s">
         <v>182</v>
@@ -2823,33 +2824,33 @@
       <c r="F20" s="23">
         <v>45349</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="I20" s="34" t="s">
         <v>188</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>189</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>60</v>
       </c>
       <c r="K20" s="33"/>
-      <c r="L20" s="47" t="s">
+      <c r="L20" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="49" t="s">
-        <v>200</v>
+      <c r="N20" s="48" t="s">
+        <v>199</v>
       </c>
       <c r="O20" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="40" t="s">
-        <v>190</v>
+      <c r="P20" s="39" t="s">
+        <v>189</v>
       </c>
       <c r="Q20" s="33" t="s">
         <v>182</v>
@@ -2876,9 +2877,7 @@
       <c r="E21" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="23">
-        <v>45349</v>
-      </c>
+      <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -2886,13 +2885,13 @@
         <v>163</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
       <c r="S21" s="27"/>
@@ -2910,7 +2909,7 @@
       <c r="C22" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="37" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="22" t="s">
@@ -2919,14 +2918,14 @@
       <c r="F22" s="23">
         <v>45349</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="I22" s="34" t="s">
         <v>205</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>206</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>60</v>
@@ -2938,14 +2937,14 @@
       <c r="M22" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="37" t="s">
-        <v>203</v>
+      <c r="N22" s="36" t="s">
+        <v>202</v>
       </c>
       <c r="O22" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P22" s="41" t="s">
-        <v>207</v>
+      <c r="P22" s="40" t="s">
+        <v>206</v>
       </c>
       <c r="Q22" s="33" t="s">
         <v>182</v>
@@ -2969,12 +2968,10 @@
       <c r="D23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="23">
-        <v>45349</v>
-      </c>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
@@ -2982,13 +2979,13 @@
         <v>163</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="26"/>
       <c r="S23" s="27"/>
@@ -3012,9 +3009,7 @@
       <c r="E24" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="23">
-        <v>45349</v>
-      </c>
+      <c r="F24" s="23"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -3022,13 +3017,13 @@
         <v>163</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
@@ -3052,9 +3047,7 @@
       <c r="E25" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="23">
-        <v>45349</v>
-      </c>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -3062,13 +3055,13 @@
         <v>163</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="26"/>
       <c r="S25" s="27"/>
@@ -3092,9 +3085,7 @@
       <c r="E26" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="23">
-        <v>45349</v>
-      </c>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -3102,13 +3093,13 @@
         <v>163</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
       <c r="S26" s="27"/>
@@ -3126,7 +3117,7 @@
       <c r="C27" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E27" s="22" t="s">
@@ -3135,14 +3126,14 @@
       <c r="F27" s="23">
         <v>45349</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H27" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="I27" s="34" t="s">
         <v>214</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>215</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>60</v>
@@ -3154,14 +3145,14 @@
       <c r="M27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="51" t="s">
-        <v>212</v>
+      <c r="N27" s="50" t="s">
+        <v>211</v>
       </c>
       <c r="O27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="41" t="s">
-        <v>216</v>
+      <c r="P27" s="40" t="s">
+        <v>215</v>
       </c>
       <c r="Q27" s="33" t="s">
         <v>182</v>
@@ -3182,7 +3173,7 @@
       <c r="C28" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="37" t="s">
         <v>92</v>
       </c>
       <c r="E28" s="22" t="s">
@@ -3191,14 +3182,14 @@
       <c r="F28" s="23">
         <v>45349</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="I28" s="34" t="s">
         <v>220</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>221</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>60</v>
@@ -3210,14 +3201,14 @@
       <c r="M28" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="52" t="s">
-        <v>217</v>
+      <c r="N28" s="51" t="s">
+        <v>216</v>
       </c>
       <c r="O28" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P28" s="41" t="s">
-        <v>218</v>
+      <c r="P28" s="40" t="s">
+        <v>217</v>
       </c>
       <c r="Q28" s="33" t="s">
         <v>182</v>
@@ -3247,14 +3238,14 @@
       <c r="F29" s="23">
         <v>45349</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="I29" s="34" t="s">
         <v>224</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>225</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>60</v>
@@ -3266,12 +3257,14 @@
       <c r="M29" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="O29" s="40"/>
-      <c r="P29" s="41" t="s">
-        <v>226</v>
+      <c r="N29" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>225</v>
       </c>
       <c r="Q29" s="33" t="s">
         <v>182</v>
@@ -3308,13 +3301,13 @@
         <v>163</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
@@ -3338,9 +3331,7 @@
       <c r="E31" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="53" t="s">
-        <v>228</v>
-      </c>
+      <c r="F31" s="52"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -3348,13 +3339,13 @@
         <v>163</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
       <c r="Q31" s="25"/>
       <c r="R31" s="26"/>
       <c r="S31" s="27"/>
@@ -3378,9 +3369,7 @@
       <c r="E32" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="23">
-        <v>45349</v>
-      </c>
+      <c r="F32" s="23"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -3388,13 +3377,13 @@
         <v>163</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="26"/>
       <c r="S32" s="27"/>
@@ -3418,9 +3407,7 @@
       <c r="E33" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="23">
-        <v>45349</v>
-      </c>
+      <c r="F33" s="23"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -3428,13 +3415,13 @@
         <v>163</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
       <c r="Q33" s="25"/>
       <c r="R33" s="26"/>
       <c r="S33" s="27"/>
@@ -3458,9 +3445,7 @@
       <c r="E34" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="23">
-        <v>45349</v>
-      </c>
+      <c r="F34" s="23"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -3468,13 +3453,13 @@
         <v>163</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="26"/>
       <c r="S34" s="27"/>
@@ -3492,7 +3477,7 @@
       <c r="C35" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="37" t="s">
         <v>106</v>
       </c>
       <c r="E35" s="22" t="s">
@@ -3501,14 +3486,14 @@
       <c r="F35" s="23">
         <v>45349</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I35" s="34" t="s">
         <v>231</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>233</v>
       </c>
       <c r="J35" s="33" t="s">
         <v>60</v>
@@ -3520,14 +3505,14 @@
       <c r="M35" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N35" s="51" t="s">
-        <v>229</v>
+      <c r="N35" s="50" t="s">
+        <v>227</v>
       </c>
       <c r="O35" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P35" s="41" t="s">
-        <v>230</v>
+      <c r="P35" s="40" t="s">
+        <v>228</v>
       </c>
       <c r="Q35" s="33" t="s">
         <v>182</v>
@@ -3539,31 +3524,31 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="140.1" customHeight="1" thickBot="1">
-      <c r="A36" s="54">
+      <c r="A36" s="53">
         <v>374</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="53">
+      <c r="F36" s="52">
         <v>45345</v>
       </c>
-      <c r="G36" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="H36" s="35" t="s">
+      <c r="G36" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H36" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="34" t="s">
         <v>165</v>
       </c>
       <c r="J36" s="33" t="s">
@@ -3576,9 +3561,9 @@
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="33"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="56" t="s">
+      <c r="R36" s="54"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="55" t="s">
         <v>46</v>
       </c>
     </row>

--- a/GATEWAY/A1#111#ESCINFORMATICASRLXX/ESC-INFORMATICA_SRL/MEDIXIS/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ESCINFORMATICASRLXX/ESC-INFORMATICA_SRL/MEDIXIS/1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\escsrv12\Sviluppo$\MediXis\FSE2_2024\Files_Accreditamento\A1#111#ESCINFORMATICASRLXX\ESC-INFORMATICA_SRL\MEDIXIS\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FD1529-46A0-4262-BF71-7E542AC92047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4EA15E-9DF5-4705-889F-931CE846388B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="238">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -993,6 +993,9 @@
   </si>
   <si>
     <t>subject_application_id: MEDIXIS</t>
+  </si>
+  <si>
+    <t>[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25'],[ERRORE-44| Il codice fiscale 'mdcttn62r10a944d' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
   </si>
 </sst>
 </file>
@@ -1510,9 +1513,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1549,6 +1549,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1571,7 +1574,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2066,7 +2069,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2413,7 +2416,7 @@
       <c r="M11" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="55" t="s">
         <v>178</v>
       </c>
       <c r="O11" s="40" t="s">
@@ -2731,7 +2734,9 @@
       <c r="M18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="43"/>
+      <c r="N18" s="68" t="s">
+        <v>237</v>
+      </c>
       <c r="O18" s="33" t="s">
         <v>60</v>
       </c>
@@ -2781,13 +2786,13 @@
         <v>60</v>
       </c>
       <c r="K19" s="33"/>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="N19" s="44" t="s">
         <v>200</v>
       </c>
       <c r="O19" s="33" t="s">
@@ -2837,13 +2842,13 @@
         <v>60</v>
       </c>
       <c r="K20" s="33"/>
-      <c r="L20" s="46" t="s">
+      <c r="L20" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="48" t="s">
+      <c r="N20" s="47" t="s">
         <v>199</v>
       </c>
       <c r="O20" s="25" t="s">
@@ -2968,7 +2973,7 @@
       <c r="D23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="48" t="s">
         <v>83</v>
       </c>
       <c r="F23" s="23"/>
@@ -3145,7 +3150,7 @@
       <c r="M27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="50" t="s">
+      <c r="N27" s="49" t="s">
         <v>211</v>
       </c>
       <c r="O27" s="33" t="s">
@@ -3201,7 +3206,7 @@
       <c r="M28" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="51" t="s">
+      <c r="N28" s="50" t="s">
         <v>216</v>
       </c>
       <c r="O28" s="33" t="s">
@@ -3257,7 +3262,7 @@
       <c r="M29" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="51" t="s">
+      <c r="N29" s="50" t="s">
         <v>221</v>
       </c>
       <c r="O29" s="33" t="s">
@@ -3291,9 +3296,7 @@
       <c r="E30" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="23">
-        <v>45349</v>
-      </c>
+      <c r="F30" s="23"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -3331,7 +3334,7 @@
       <c r="E31" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -3505,7 +3508,7 @@
       <c r="M35" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N35" s="50" t="s">
+      <c r="N35" s="49" t="s">
         <v>227</v>
       </c>
       <c r="O35" s="33" t="s">
@@ -3524,7 +3527,7 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="140.1" customHeight="1" thickBot="1">
-      <c r="A36" s="53">
+      <c r="A36" s="52">
         <v>374</v>
       </c>
       <c r="B36" s="37" t="s">
@@ -3536,10 +3539,10 @@
       <c r="D36" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="51">
         <v>45345</v>
       </c>
       <c r="G36" s="34" t="s">
@@ -3561,9 +3564,9 @@
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="33"/>
-      <c r="R36" s="54"/>
+      <c r="R36" s="53"/>
       <c r="S36" s="41"/>
-      <c r="T36" s="55" t="s">
+      <c r="T36" s="54" t="s">
         <v>46</v>
       </c>
     </row>

--- a/GATEWAY/A1#111#ESCINFORMATICASRLXX/ESC-INFORMATICA_SRL/MEDIXIS/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ESCINFORMATICASRLXX/ESC-INFORMATICA_SRL/MEDIXIS/1.0.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\escsrv12\Sviluppo$\MediXis\FSE2_2024\Files_Accreditamento\A1#111#ESCINFORMATICASRLXX\ESC-INFORMATICA_SRL\MEDIXIS\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4EA15E-9DF5-4705-889F-931CE846388B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F937964-394B-476F-AE90-8694214B157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -776,21 +776,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>f630e7927c255a14</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.b4353945207f34564bccb5d6e6198785db3cd57f7c1f1b55f419d5637b16abb6.2f7bc3b5df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-02-23T17:38:05Z</t>
-  </si>
-  <si>
-    <t>f62ad1b350b43413</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a652078f79e44e1a9f271cbd3e41b3e27eed0f4b98d306d343699ca0c46b8859.3fd77b068e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Sezioni opzionali non gestite</t>
   </si>
   <si>
@@ -980,9 +965,6 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.7ce50f6d3b63af01daf5b37f26dd48ee2065b132dedd95203ea817eee6105709.07487cf581^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-02-23T13:40:50Z</t>
-  </si>
-  <si>
     <t>subject_application_version:1.0.0</t>
   </si>
   <si>
@@ -996,6 +978,24 @@
   </si>
   <si>
     <t>[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25'],[ERRORE-44| Il codice fiscale 'mdcttn62r10a944d' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
+  </si>
+  <si>
+    <t>2024-03-07T16:45Z</t>
+  </si>
+  <si>
+    <t>3c41ecce86da87f6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a652078f79e44e1a9f271cbd3e41b3e27eed0f4b98d306d343699ca0c46b8859.9f60a313ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-07T16:51Z</t>
+  </si>
+  <si>
+    <t>627ceffd98d556bb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.b4353945207f34564bccb5d6e6198785db3cd57f7c1f1b55f419d5637b16abb6.9be3a61541^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1552,6 +1552,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1573,9 +1576,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2069,7 +2069,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2107,14 +2107,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="60"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2132,14 +2132,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="59"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="60"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2157,12 +2157,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="59"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="60"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -2181,12 +2181,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="59"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="60"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -2204,8 +2204,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2342,13 +2342,13 @@
         <v>45345</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J10" s="25" t="s">
         <v>60</v>
@@ -2361,16 +2361,16 @@
         <v>60</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O10" s="39" t="s">
         <v>60</v>
       </c>
       <c r="P10" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="33" t="s">
         <v>177</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>182</v>
       </c>
       <c r="R10" s="26"/>
       <c r="S10" s="27"/>
@@ -2398,13 +2398,13 @@
         <v>45345</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>60</v>
@@ -2417,16 +2417,16 @@
         <v>60</v>
       </c>
       <c r="N11" s="55" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O11" s="40" t="s">
         <v>60</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R11" s="26"/>
       <c r="S11" s="27"/>
@@ -2471,7 +2471,7 @@
         <v>60</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q12" s="25"/>
       <c r="R12" s="26" t="s">
@@ -2499,16 +2499,16 @@
         <v>63</v>
       </c>
       <c r="F13" s="23">
-        <v>45345</v>
+        <v>45358</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>60</v>
@@ -2550,7 +2550,7 @@
         <v>163</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -2588,7 +2588,7 @@
         <v>163</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -2626,7 +2626,7 @@
         <v>163</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -2660,13 +2660,13 @@
         <v>45345</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J17" s="25" t="s">
         <v>60</v>
@@ -2679,16 +2679,16 @@
         <v>60</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O17" s="33" t="s">
         <v>60</v>
       </c>
       <c r="P17" s="40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="35"/>
@@ -2716,13 +2716,13 @@
         <v>45349</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>60</v>
@@ -2734,21 +2734,21 @@
       <c r="M18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="68" t="s">
-        <v>237</v>
+      <c r="N18" s="56" t="s">
+        <v>231</v>
       </c>
       <c r="O18" s="33" t="s">
         <v>60</v>
       </c>
       <c r="P18" s="40" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R18" s="26"/>
       <c r="S18" s="35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="T18" s="28" t="s">
         <v>52</v>
@@ -2774,13 +2774,13 @@
         <v>45349</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>60</v>
@@ -2793,16 +2793,16 @@
         <v>60</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O19" s="33" t="s">
         <v>60</v>
       </c>
       <c r="P19" s="39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R19" s="26"/>
       <c r="S19" s="27"/>
@@ -2830,13 +2830,13 @@
         <v>45349</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>60</v>
@@ -2849,16 +2849,16 @@
         <v>60</v>
       </c>
       <c r="N20" s="47" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O20" s="25" t="s">
         <v>60</v>
       </c>
       <c r="P20" s="39" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R20" s="26"/>
       <c r="S20" s="27"/>
@@ -2890,7 +2890,7 @@
         <v>163</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -2924,13 +2924,13 @@
         <v>45349</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>60</v>
@@ -2943,16 +2943,16 @@
         <v>60</v>
       </c>
       <c r="N22" s="36" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="O22" s="33" t="s">
         <v>60</v>
       </c>
       <c r="P22" s="40" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R22" s="26"/>
       <c r="S22" s="27"/>
@@ -2984,7 +2984,7 @@
         <v>163</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -3022,7 +3022,7 @@
         <v>163</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -3060,7 +3060,7 @@
         <v>163</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -3098,7 +3098,7 @@
         <v>163</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -3132,13 +3132,13 @@
         <v>45349</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>60</v>
@@ -3151,16 +3151,16 @@
         <v>60</v>
       </c>
       <c r="N27" s="49" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O27" s="33" t="s">
         <v>60</v>
       </c>
       <c r="P27" s="40" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R27" s="26"/>
       <c r="S27" s="27"/>
@@ -3188,13 +3188,13 @@
         <v>45349</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>60</v>
@@ -3207,16 +3207,16 @@
         <v>60</v>
       </c>
       <c r="N28" s="50" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="O28" s="33" t="s">
         <v>60</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
@@ -3244,13 +3244,13 @@
         <v>45349</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>60</v>
@@ -3263,16 +3263,16 @@
         <v>60</v>
       </c>
       <c r="N29" s="50" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O29" s="33" t="s">
         <v>60</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R29" s="26"/>
       <c r="S29" s="27"/>
@@ -3304,7 +3304,7 @@
         <v>163</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
@@ -3342,7 +3342,7 @@
         <v>163</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -3380,7 +3380,7 @@
         <v>163</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -3418,7 +3418,7 @@
         <v>163</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
@@ -3456,7 +3456,7 @@
         <v>163</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
@@ -3490,13 +3490,13 @@
         <v>45349</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J35" s="33" t="s">
         <v>60</v>
@@ -3509,16 +3509,16 @@
         <v>60</v>
       </c>
       <c r="N35" s="49" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O35" s="33" t="s">
         <v>60</v>
       </c>
       <c r="P35" s="40" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q35" s="33" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="R35" s="26"/>
       <c r="S35" s="27"/>
@@ -3543,16 +3543,16 @@
         <v>109</v>
       </c>
       <c r="F36" s="51">
-        <v>45345</v>
+        <v>45358</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="J36" s="33" t="s">
         <v>60</v>

--- a/GATEWAY/A1#111#ESCINFORMATICASRLXX/ESC-INFORMATICA_SRL/MEDIXIS/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ESCINFORMATICASRLXX/ESC-INFORMATICA_SRL/MEDIXIS/1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\escsrv12\Sviluppo$\MediXis\FSE2_2024\Files_Accreditamento\A1#111#ESCINFORMATICASRLXX\ESC-INFORMATICA_SRL\MEDIXIS\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F937964-394B-476F-AE90-8694214B157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA7AEA9-F32D-4B2F-AD2F-33BB5104626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -980,15 +980,6 @@
     <t>[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25'],[ERRORE-44| Il codice fiscale 'mdcttn62r10a944d' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
   </si>
   <si>
-    <t>2024-03-07T16:45Z</t>
-  </si>
-  <si>
-    <t>3c41ecce86da87f6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a652078f79e44e1a9f271cbd3e41b3e27eed0f4b98d306d343699ca0c46b8859.9f60a313ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-03-07T16:51Z</t>
   </si>
   <si>
@@ -996,6 +987,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.b4353945207f34564bccb5d6e6198785db3cd57f7c1f1b55f419d5637b16abb6.9be3a61541^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-03-08T10:01:09Z</t>
+  </si>
+  <si>
+    <t>3ff6d754a0a93a25</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a652078f79e44e1a9f271cbd3e41b3e27eed0f4b98d306d343699ca0c46b8859.5325be52c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2069,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2499,16 +2499,16 @@
         <v>63</v>
       </c>
       <c r="F13" s="23">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>60</v>
@@ -3546,13 +3546,13 @@
         <v>45358</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J36" s="33" t="s">
         <v>60</v>

--- a/GATEWAY/A1#111#ESCINFORMATICASRLXX/ESC-INFORMATICA_SRL/MEDIXIS/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ESCINFORMATICASRLXX/ESC-INFORMATICA_SRL/MEDIXIS/1.0.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\escsrv12\Sviluppo$\MediXis\FSE2_2024\Files_Accreditamento\A1#111#ESCINFORMATICASRLXX\ESC-INFORMATICA_SRL\MEDIXIS\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA7AEA9-F32D-4B2F-AD2F-33BB5104626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A524D6-B343-4C99-ABA8-74BB9A355003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="233">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -797,36 +797,12 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>Il campo subject_application_vendor non è valorizzato</t>
-  </si>
-  <si>
-    <t>viene scritto un log di esito di invio con registrazione dell'errore: {"traceID":"a5fb5c0c4c87a4f2","spanID":"a5fb5c0c4c87a4f2","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo subject_application_vendor non è valorizzato","status":403,"instance":"/jwt-mandatory-field-missing","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}</t>
-  </si>
-  <si>
-    <t>Il campo purpose_of_use non è corretto</t>
-  </si>
-  <si>
     <t>2024-02-23T18:22:45Z</t>
   </si>
   <si>
     <t>9d30307534dda6e7</t>
   </si>
   <si>
-    <t>viene scritto il log di errore: {"traceID":"9d30307534dda6e7","spanID":"9d30307534dda6e7","type":"/msg/jwt-validation","title":"Campo token JWT non valido.","detail":"Il campo purpose_of_use non è corretto","status":403,"instance":"/jwt-mandatory-field-malformed","workflowInstanceId":"UNKNOWN_WORKFLOW_ID"}</t>
-  </si>
-  <si>
-    <t>viene corretto l'errore e il documento verrà di nuovo accodato per invio a FSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verrà scritto il log di errore </t>
-  </si>
-  <si>
-    <t>Errore di Sintassi: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}</t>
-  </si>
-  <si>
-    <t>log di errore:{"traceID":"aefcd073dc865bdb","spanID":"aefcd073dc865bdb","type":"/msg/syntax","title":"Errore di sintassi.","detail":"ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.80.3.1.4.4.4a5fc09346e891115a983349a91906ae61de74968b3d56e0c45cab250377e746.65caaea2fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
     <t>2024-02-27T09:47:52Z</t>
   </si>
   <si>
@@ -836,9 +812,6 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.efd8feb0d4830ca8de690a3f598cc43d4e44d1f60740c8ba4e06affb12fb7c3c.8dc3800480^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>viene scritto un log di errore: {"traceID":"85ecd7fa16c91b1f","spanID":"85ecd7fa16c91b1f","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.80.3.1.4.4.efd8feb0d4830ca8de690a3f598cc43d4e44d1f60740c8ba4e06affb12fb7c3c.8dc3800480^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
     <t>f4e35a14869df371</t>
   </si>
   <si>
@@ -848,12 +821,6 @@
     <t>2024-02-27T10:20:58Z</t>
   </si>
   <si>
-    <t>viene scritto il log di errore:{"traceID":"f4e35a14869df371","spanID":"f4e35a14869df371","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25'],[ERRORE-44| Il codice fiscale 'mdcttn62r10a944d' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.80.3.1.4.4.eec579e0ff662b2b3a902d0fa98ccc11c88ec71921160560eae8de301992210f.9a9d5de5f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
-    <t>ho forzato l'errore. L'applicativo esegue uppcase del campi codifice fiscale</t>
-  </si>
-  <si>
     <t>l'applicativo non consente di registrare un paziente senza indicare il nome.</t>
   </si>
   <si>
@@ -866,18 +833,6 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.eec579e0ff662b2b3a902d0fa98ccc11c88ec71921160560eae8de301992210f.8230593488^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Attenzione</t>
-  </si>
-  <si>
-    <t>[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
-  </si>
-  <si>
-    <t>{"traceID":"c28d3cddaf575986","spanID":"c28d3cddaf575986","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.80.3.1.4.4.eec579e0ff662b2b3a902d0fa98ccc11c88ec71921160560eae8de301992210f.8230593488^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
-    <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: X]</t>
-  </si>
-  <si>
     <t>2024-02-27T11:30:08Z</t>
   </si>
   <si>
@@ -887,9 +842,6 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.eec579e0ff662b2b3a902d0fa98ccc11c88ec71921160560eae8de301992210f.f3676f234a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>viene scritto il log:{"traceID":"697adb858aa90bfc","spanID":"697adb858aa90bfc","type":"/msg/vocabulary","title":"Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: X]","status":400,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.80.3.1.4.4.eec579e0ff662b2b3a902d0fa98ccc11c88ec71921160560eae8de301992210f.f3676f234a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
     <t>l'applicativo non gestice la sezione</t>
   </si>
   <si>
@@ -902,9 +854,6 @@
     <t>i dati relativi alle prestazioni/esami da eseguire sono obbligatori</t>
   </si>
   <si>
-    <t>[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text']</t>
-  </si>
-  <si>
     <t>2024-02-27T12:21:25Z</t>
   </si>
   <si>
@@ -914,15 +863,6 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.7ce50f6d3b63af01daf5b37f26dd48ee2065b132dedd95203ea817eee6105709.19b5919af5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>scrive log:{"traceID":"d3c0dd25999a9903","spanID":"d3c0dd25999a9903","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.80.3.1.4.4.7ce50f6d3b63af01daf5b37f26dd48ee2065b132dedd95203ea817eee6105709.19b5919af5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
-    <t>[ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']</t>
-  </si>
-  <si>
-    <t>scrive log:{"traceID":"c3d3fe098efc7bc7","spanID":"c3d3fe098efc7bc7","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.80.3.1.4.4.7ce50f6d3b63af01daf5b37f26dd48ee2065b132dedd95203ea817eee6105709.5f420b9011^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
     <t>2024-02-27T12:40:27Z</t>
   </si>
   <si>
@@ -932,9 +872,6 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.7ce50f6d3b63af01daf5b37f26dd48ee2065b132dedd95203ea817eee6105709.5f420b9011^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>[ERRORE-b3| Sezione Prestazioni: la sezione DEVE contenere un elemento 'entry']</t>
-  </si>
-  <si>
     <t>2024-02-27T12:53:45Z</t>
   </si>
   <si>
@@ -944,18 +881,9 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.7ce50f6d3b63af01daf5b37f26dd48ee2065b132dedd95203ea817eee6105709.35b50dca9d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>scrive log:{"traceID":"568f70424300db45","spanID":"568f70424300db45","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-b3| Sezione Prestazioni: la sezione DEVE contenere un elemento 'entry']","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.80.3.1.4.4.7ce50f6d3b63af01daf5b37f26dd48ee2065b132dedd95203ea817eee6105709.35b50dca9d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
     <t>la sezione non viene gestita</t>
   </si>
   <si>
-    <t>[ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice "S" ]</t>
-  </si>
-  <si>
-    <t>scrive log: {"traceID":"5f4546e07d5aae78","spanID":"5f4546e07d5aae78","type":"/msg/semantic","title":"Errore semantico.","detail":"[ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice \"S\" ]","status":422,"instance":"/validation/error","workflowInstanceId":"2.16.840.1.113883.2.9.2.80.3.1.4.4.7ce50f6d3b63af01daf5b37f26dd48ee2065b132dedd95203ea817eee6105709.07487cf581^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"}</t>
-  </si>
-  <si>
     <t>2024-02-27T14:06:57Z</t>
   </si>
   <si>
@@ -977,9 +905,6 @@
     <t>subject_application_id: MEDIXIS</t>
   </si>
   <si>
-    <t>[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25'],[ERRORE-44| Il codice fiscale 'mdcttn62r10a944d' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
-  </si>
-  <si>
     <t>2024-03-07T16:51Z</t>
   </si>
   <si>
@@ -996,6 +921,66 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.a652078f79e44e1a9f271cbd3e41b3e27eed0f4b98d306d343699ca0c46b8859.5325be52c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore: Il campo subject_application_vendor non è valorizzato</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore: Il campo purpose_of_use non è corretto</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore: request timed-out</t>
+  </si>
+  <si>
+    <t>L’errore viene segnalato all’utente finale, che contatterà l'operatore di backoffice, che ha a disposizione un elenco con gli esiti della validazione del cda. In questo caso l’operatore di backoffice riproverà manualmente in un secondo momento ad inviare il documento per la validazione.</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore: Errore di Sintassi: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore: [ERRORE-44| Il codice fiscale 'mdcttn62r10a944d' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore: [ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore:[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore: Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: X]</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore: [ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text']</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore: [ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore: [ERRORE-b3| Sezione Prestazioni: la sezione DEVE contenere un elemento 'entry']</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore: [ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice "S" ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’errore viene segnalato all’utente finale, che contatterà l'operatore di backoffice, che ha a disposizione un elenco con gli esiti della validazione del cda, viene visualizzato l'errore restituito dal sevizio di validazione FSE. In questo caso contatterà l'helpdesk IT, che provvederà a correggere l'errore. Dopo la correzione l'operatore di backoffice contatterà il medico per la ripresa del processo di refertazione che comprende di nuovo l’invio a FSE del documento per la validazione del cda. L’applicazione prevedere la scrittura di un log che contiene la risposta ricevuta dal servizio invocato.  Il log permetterà all’helpdesk IT di intervenire in autonomia in casi di errore di questa tipologia.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’errore viene segnalato all’utente finale, che contatterà l'operatore di backoffice, che ha a disposizione un elenco con gli esiti della validazione del cda, viene visualizzato l'errore restituito dal servizio di validazione FSE. In questo caso contatterà l'helpdesk IT, che provvederà a correggere l'errore. Dopo la correzione l'operatore di backoffice contatterà il medico per la ripresa del processo di refertazione che comprende di nuovo l’invio a FSE del documento per la validazione del cda. L’applicazione prevedere la scrittura di un log che contiene la risposta ricevuta dal servizio invocato.  Il log permetterà all’helpdesk IT di intervenire in autonomia in casi di errore di questa tipologia.   </t>
+  </si>
+  <si>
+    <t>La mancanza del livello di riservatezza viene segnalato al medico, che potrà inserirlo e reinviare il documento per la validazione.</t>
+  </si>
+  <si>
+    <t>L’operatore di backoffice corregge il codice fiscale e contatterà il medico per la ripresa del processo di refertazione che comprende di nuovo l’invio a FSE del documento per la validazione del cda</t>
+  </si>
+  <si>
+    <t>Il controllo dei valori del livello di riservatezza viene segnalato al medico, che potrà inserirlo e reinviare il documento per la validazione.</t>
+  </si>
+  <si>
+    <t>L'operatore di backoffice inserisce i dati mancanti nell'anagrafica paziente e contatterà il medico per la ripresa del processo di refertazione che comprende di nuovo l’invio a FSE del documento per la validazione del cda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’errore viene segnalato all’utente finale, che contatterà l'operatore di backoffice, che ha a disposizione un elenco con gli esiti della validazione del cda, viene visualizzato l'errore restituito dal servizio di validazione FSE.  In questo caso contatterà l'helpdesk IT, che provvederà a correggere l'errore. Dopo la correzione l'operatore di backoffice contatterà il medico per la ripresa del processo di refertazione che comprende di nuovo l’invio a FSE del documento per la validazione del cda. L’applicazione prevedere la scrittura di un log che contiene la risposta ricevuta dal servizio invocato.  Il log permetterà all’helpdesk IT di intervenire in autonomia in casi di errore di questa tipologia.   </t>
   </si>
 </sst>
 </file>
@@ -1005,11 +990,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1071,14 +1063,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1395,158 +1388,143 @@
   </cellStyleXfs>
   <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1555,27 +1533,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1873,7 +1866,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2069,7 +2062,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2107,14 +2100,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="60"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="59"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2132,14 +2125,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="59"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2157,12 +2150,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="60"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="59"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -2181,12 +2174,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="60"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="59"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -2204,8 +2197,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2300,13 +2293,13 @@
       <c r="M9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="37" t="s">
         <v>39</v>
       </c>
       <c r="Q9" s="18" t="s">
@@ -2322,7 +2315,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150.75" thickBot="1">
+    <row r="10" spans="1:20" ht="210.75" thickBot="1">
       <c r="A10" s="20">
         <v>32</v>
       </c>
@@ -2361,24 +2354,22 @@
         <v>60</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="O10" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="O10" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>177</v>
-      </c>
+      <c r="P10" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q10" s="33"/>
       <c r="R10" s="26"/>
       <c r="S10" s="27"/>
       <c r="T10" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="165.75" thickBot="1">
+    <row r="11" spans="1:20" ht="210.75" thickBot="1">
       <c r="A11" s="20">
         <v>40</v>
       </c>
@@ -2398,10 +2389,10 @@
         <v>45345</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I11" s="34" t="s">
         <v>170</v>
@@ -2416,25 +2407,23 @@
       <c r="M11" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="O11" s="40" t="s">
+      <c r="N11" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="O11" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>177</v>
-      </c>
+      <c r="P11" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q11" s="33"/>
       <c r="R11" s="26"/>
       <c r="S11" s="27"/>
       <c r="T11" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="60.75" thickBot="1">
+    <row r="12" spans="1:20" ht="90.75" thickBot="1">
       <c r="A12" s="20">
         <v>48</v>
       </c>
@@ -2466,14 +2455,16 @@
       <c r="M12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="40" t="s">
+      <c r="N12" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="O12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P12" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q12" s="25"/>
+      <c r="P12" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q12" s="33"/>
       <c r="R12" s="26" t="s">
         <v>60</v>
       </c>
@@ -2502,13 +2493,13 @@
         <v>45359</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>60</v>
@@ -2640,7 +2631,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="180.75" thickBot="1">
+    <row r="17" spans="1:20" ht="120.75" thickBot="1">
       <c r="A17" s="20">
         <v>151</v>
       </c>
@@ -2679,17 +2670,15 @@
         <v>60</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P17" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="33"/>
       <c r="R17" s="26"/>
       <c r="S17" s="35"/>
       <c r="T17" s="28" t="s">
@@ -2706,7 +2695,7 @@
       <c r="C18" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="22" t="s">
@@ -2716,13 +2705,13 @@
         <v>45349</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>60</v>
@@ -2734,27 +2723,23 @@
       <c r="M18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="56" t="s">
-        <v>231</v>
+      <c r="N18" s="51" t="s">
+        <v>218</v>
       </c>
       <c r="O18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q18" s="33" t="s">
-        <v>177</v>
-      </c>
+      <c r="P18" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q18" s="33"/>
       <c r="R18" s="26"/>
-      <c r="S18" s="35" t="s">
-        <v>189</v>
-      </c>
+      <c r="S18" s="35"/>
       <c r="T18" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="150.75" thickBot="1">
+    <row r="19" spans="1:20" ht="135.75" thickBot="1">
       <c r="A19" s="20">
         <v>153</v>
       </c>
@@ -2764,7 +2749,7 @@
       <c r="C19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="22" t="s">
@@ -2774,43 +2759,41 @@
         <v>45349</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>60</v>
       </c>
       <c r="K19" s="33"/>
-      <c r="L19" s="43" t="s">
+      <c r="L19" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="43" t="s">
+      <c r="M19" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="44" t="s">
-        <v>195</v>
+      <c r="N19" s="68" t="s">
+        <v>219</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>177</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P19" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q19" s="33"/>
       <c r="R19" s="26"/>
       <c r="S19" s="27"/>
       <c r="T19" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="180.75" thickBot="1">
+    <row r="20" spans="1:20" ht="135.75" thickBot="1">
       <c r="A20" s="20">
         <v>154</v>
       </c>
@@ -2830,36 +2813,34 @@
         <v>45349</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>60</v>
       </c>
       <c r="K20" s="33"/>
-      <c r="L20" s="45" t="s">
+      <c r="L20" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="46" t="s">
+      <c r="M20" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="47" t="s">
-        <v>194</v>
+      <c r="N20" s="54" t="s">
+        <v>220</v>
       </c>
       <c r="O20" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="33" t="s">
-        <v>177</v>
-      </c>
+      <c r="P20" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q20" s="33"/>
       <c r="R20" s="26"/>
       <c r="S20" s="27"/>
       <c r="T20" s="28" t="s">
@@ -2890,13 +2871,13 @@
         <v>163</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="26"/>
       <c r="S21" s="27"/>
@@ -2904,7 +2885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="165.75" thickBot="1">
+    <row r="22" spans="1:20" ht="210.75" thickBot="1">
       <c r="A22" s="20">
         <v>156</v>
       </c>
@@ -2914,7 +2895,7 @@
       <c r="C22" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="22" t="s">
@@ -2924,13 +2905,13 @@
         <v>45349</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="J22" s="33" t="s">
         <v>60</v>
@@ -2942,18 +2923,16 @@
       <c r="M22" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="36" t="s">
-        <v>197</v>
+      <c r="N22" s="55" t="s">
+        <v>221</v>
       </c>
       <c r="O22" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P22" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q22" s="33" t="s">
-        <v>177</v>
-      </c>
+      <c r="P22" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q22" s="33"/>
       <c r="R22" s="26"/>
       <c r="S22" s="27"/>
       <c r="T22" s="28" t="s">
@@ -2973,7 +2952,7 @@
       <c r="D23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="45" t="s">
         <v>83</v>
       </c>
       <c r="F23" s="23"/>
@@ -2984,13 +2963,13 @@
         <v>163</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="26"/>
       <c r="S23" s="27"/>
@@ -3022,13 +3001,13 @@
         <v>163</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
@@ -3060,13 +3039,13 @@
         <v>163</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="26"/>
       <c r="S25" s="27"/>
@@ -3098,13 +3077,13 @@
         <v>163</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
       <c r="S26" s="27"/>
@@ -3112,7 +3091,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="150.75" thickBot="1">
+    <row r="27" spans="1:20" ht="210.75" thickBot="1">
       <c r="A27" s="20">
         <v>161</v>
       </c>
@@ -3122,7 +3101,7 @@
       <c r="C27" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>90</v>
       </c>
       <c r="E27" s="22" t="s">
@@ -3132,13 +3111,13 @@
         <v>45349</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>60</v>
@@ -3150,25 +3129,23 @@
       <c r="M27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="49" t="s">
-        <v>206</v>
+      <c r="N27" s="50" t="s">
+        <v>222</v>
       </c>
       <c r="O27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q27" s="33" t="s">
-        <v>177</v>
-      </c>
+      <c r="P27" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q27" s="33"/>
       <c r="R27" s="26"/>
       <c r="S27" s="27"/>
       <c r="T27" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="150.75" thickBot="1">
+    <row r="28" spans="1:20" ht="210.75" thickBot="1">
       <c r="A28" s="20">
         <v>162</v>
       </c>
@@ -3178,7 +3155,7 @@
       <c r="C28" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>92</v>
       </c>
       <c r="E28" s="22" t="s">
@@ -3188,13 +3165,13 @@
         <v>45349</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="J28" s="33" t="s">
         <v>60</v>
@@ -3206,25 +3183,23 @@
       <c r="M28" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="50" t="s">
-        <v>211</v>
+      <c r="N28" s="55" t="s">
+        <v>223</v>
       </c>
       <c r="O28" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P28" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q28" s="33" t="s">
-        <v>177</v>
-      </c>
+      <c r="P28" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q28" s="33"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
       <c r="T28" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="150.75" thickBot="1">
+    <row r="29" spans="1:20" ht="210.75" thickBot="1">
       <c r="A29" s="20">
         <v>163</v>
       </c>
@@ -3244,13 +3219,13 @@
         <v>45349</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="J29" s="33" t="s">
         <v>60</v>
@@ -3262,18 +3237,16 @@
       <c r="M29" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="50" t="s">
-        <v>216</v>
+      <c r="N29" s="55" t="s">
+        <v>224</v>
       </c>
       <c r="O29" s="33" t="s">
         <v>60</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q29" s="33" t="s">
-        <v>177</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="Q29" s="33"/>
       <c r="R29" s="26"/>
       <c r="S29" s="27"/>
       <c r="T29" s="28" t="s">
@@ -3304,13 +3277,13 @@
         <v>163</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
@@ -3334,7 +3307,7 @@
       <c r="E31" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="51"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -3342,13 +3315,13 @@
         <v>163</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
       <c r="Q31" s="25"/>
       <c r="R31" s="26"/>
       <c r="S31" s="27"/>
@@ -3380,13 +3353,13 @@
         <v>163</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="26"/>
       <c r="S32" s="27"/>
@@ -3418,13 +3391,13 @@
         <v>163</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
       <c r="Q33" s="25"/>
       <c r="R33" s="26"/>
       <c r="S33" s="27"/>
@@ -3456,13 +3429,13 @@
         <v>163</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="26"/>
       <c r="S34" s="27"/>
@@ -3470,7 +3443,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="165.75" thickBot="1">
+    <row r="35" spans="1:20" ht="210.75" thickBot="1">
       <c r="A35" s="20">
         <v>169</v>
       </c>
@@ -3480,7 +3453,7 @@
       <c r="C35" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>106</v>
       </c>
       <c r="E35" s="22" t="s">
@@ -3490,13 +3463,13 @@
         <v>45349</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J35" s="33" t="s">
         <v>60</v>
@@ -3508,18 +3481,16 @@
       <c r="M35" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N35" s="49" t="s">
-        <v>222</v>
+      <c r="N35" s="50" t="s">
+        <v>225</v>
       </c>
       <c r="O35" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="P35" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q35" s="33" t="s">
-        <v>177</v>
-      </c>
+      <c r="P35" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q35" s="33"/>
       <c r="R35" s="26"/>
       <c r="S35" s="27"/>
       <c r="T35" s="28" t="s">
@@ -3527,32 +3498,32 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="140.1" customHeight="1" thickBot="1">
-      <c r="A36" s="52">
+      <c r="A36" s="47">
         <v>374</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="51">
+      <c r="F36" s="46">
         <v>45358</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="J36" s="33" t="s">
         <v>60</v>
@@ -3564,9 +3535,9 @@
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="33"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="54" t="s">
+      <c r="R36" s="48"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="49" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8292,7 +8263,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q12:Q16 Q21 Q23:Q26 Q30:Q34 Q37:Q38</xm:sqref>
+          <xm:sqref>Q37:Q38 Q21 Q23:Q26 Q30:Q34 Q13:Q16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
